--- a/files/aaa_test.xlsx
+++ b/files/aaa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Python\Ejercicios\facturacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2A5CB-49ED-40F5-ACA9-7B1FBE2E1AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897184DF-74D6-4834-8080-B9EEFDBF7DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59A3F954-9994-4991-B83A-6053DB489A6B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>TX</t>
   </si>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3CC80D-69FD-49F6-B4A6-578E612E88C6}">
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B1500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -571,67 +571,43 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="5">
-        <v>22294231</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="5">
-        <v>22301304</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="5">
-        <v>22300862</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="5">
-        <v>22359319</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="5">
-        <v>22366155</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="5">
-        <v>22367848</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="F15" s="7"/>

--- a/files/aaa_test.xlsx
+++ b/files/aaa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Python\Ejercicios\facturacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897184DF-74D6-4834-8080-B9EEFDBF7DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F6D2D4-A27E-40D6-A940-26C4338A6416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59A3F954-9994-4991-B83A-6053DB489A6B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>TX</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>LS1</t>
+  </si>
+  <si>
+    <t>LOTE TEST</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:F952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A10:B11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -571,8 +574,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="F10" s="7"/>
